--- a/test/excels/test.xlsx
+++ b/test/excels/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B1C88C-DD01-4EDB-A091-FE85F42A149E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED53CA3-9EC2-4DA6-ADAB-488C96AE0867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22268" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22272" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>this is a test file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,22 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,24 +449,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5546875" customWidth="1"/>
+    <col min="12" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,10 +505,16 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -511,10 +537,16 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -530,11 +562,11 @@
       <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -561,7 +593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,9 +605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AB7083-F088-4BC4-9B33-9BD510AEDEEB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
